--- a/src/models/baselines/XGBoost/results/synthetic/topology/tv1/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/synthetic/topology/tv1/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.613100704009795</v>
+        <v>0.8620676461585552</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6183042546678911</v>
+        <v>0.8925619834710744</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6206764615855526</v>
+        <v>0.9151744719926538</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6518977655341293</v>
+        <v>0.9164753596571779</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6352157943067033</v>
+        <v>0.9215258647076828</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.398989898989899</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.398989898989899</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.597413529231711</v>
+        <v>0.883953168044077</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6924739822467095</v>
+        <v>0.9144475053565962</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7626262626262628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6324609733700642</v>
+        <v>0.9109274563820019</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6070171411080502</v>
+        <v>0.9186562595653505</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5970309152127333</v>
+        <v>0.8873201714110804</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.447979797979798</v>
+        <v>0.7434343434343434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.447979797979798</v>
+        <v>0.7434343434343434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6265591521273339</v>
+        <v>0.902310988674625</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03595370006773719</v>
+        <v>0.03521698818853302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03595370006773719</v>
+        <v>0.03521698818853303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02883618987120403</v>
+        <v>0.01972116855519731</v>
       </c>
     </row>
   </sheetData>
